--- a/demo/3D-FREQ.xlsx
+++ b/demo/3D-FREQ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD1889-492F-4890-8E8C-BFE8D16622FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF5A913-3089-43C7-A5AF-76D62593C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -674,13 +676,13 @@
         <v>-5.75</v>
       </c>
       <c r="O5" s="2">
-        <v>-6.44</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2">
         <v>-10.19</v>
       </c>
       <c r="Q5" s="2">
-        <v>-9.61</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>-9.61</v>
@@ -754,13 +756,13 @@
         <v>-5.71</v>
       </c>
       <c r="O6" s="2">
-        <v>-6.24</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2">
         <v>-9.73</v>
       </c>
       <c r="Q6" s="2">
-        <v>-8.9749999999999996</v>
+        <v>2</v>
       </c>
       <c r="R6" s="2">
         <v>-8.2200000000000006</v>
@@ -834,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="O7" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="P7" s="2">
         <v>13</v>
       </c>
       <c r="Q7" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R7" s="2">
         <v>15</v>
@@ -914,13 +916,13 @@
         <v>89</v>
       </c>
       <c r="O8" s="2">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P8" s="2">
         <v>87</v>
       </c>
       <c r="Q8" s="2">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="R8" s="2">
         <v>85</v>
@@ -994,13 +996,13 @@
         <v>-5.65</v>
       </c>
       <c r="O9" s="2">
-        <v>-6.05</v>
+        <v>42</v>
       </c>
       <c r="P9" s="2">
         <v>-9.34</v>
       </c>
       <c r="Q9" s="2">
-        <v>-7.07</v>
+        <v>5</v>
       </c>
       <c r="R9" s="2">
         <v>-4.05</v>
@@ -1074,13 +1076,13 @@
         <v>-5.78</v>
       </c>
       <c r="O10" s="2">
-        <v>-6.14</v>
+        <v>43</v>
       </c>
       <c r="P10" s="2">
         <v>-9.36</v>
       </c>
       <c r="Q10" s="2">
-        <v>-6.4349999999999996</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2">
         <v>-2.6600000000000099</v>
@@ -1154,13 +1156,13 @@
         <v>-5.91</v>
       </c>
       <c r="O11" s="2">
-        <v>-6.07</v>
+        <v>44</v>
       </c>
       <c r="P11" s="2">
         <v>-9</v>
       </c>
       <c r="Q11" s="2">
-        <v>-5.8</v>
+        <v>7</v>
       </c>
       <c r="R11" s="2">
         <v>-1.27000000000001</v>
@@ -1234,13 +1236,13 @@
         <v>-6.03</v>
       </c>
       <c r="O12" s="2">
-        <v>-6.03</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2">
         <v>-8.75</v>
       </c>
       <c r="Q12" s="2">
-        <v>-5.165</v>
+        <v>8</v>
       </c>
       <c r="R12" s="2">
         <v>0.11999999999999</v>
@@ -1314,13 +1316,13 @@
         <v>-6.21</v>
       </c>
       <c r="O13" s="2">
-        <v>-6.06</v>
+        <v>46</v>
       </c>
       <c r="P13" s="2">
         <v>-8.56</v>
       </c>
       <c r="Q13" s="2">
-        <v>-4.53</v>
+        <v>9</v>
       </c>
       <c r="R13" s="2">
         <v>1.51</v>
@@ -1394,13 +1396,13 @@
         <v>-6.39</v>
       </c>
       <c r="O14" s="2">
-        <v>-5.91</v>
+        <v>47</v>
       </c>
       <c r="P14" s="2">
         <v>-8.02</v>
       </c>
       <c r="Q14" s="2">
-        <v>-3.895</v>
+        <v>10</v>
       </c>
       <c r="R14" s="2">
         <v>2.9</v>
@@ -1474,13 +1476,13 @@
         <v>-6.5</v>
       </c>
       <c r="O15" s="2">
-        <v>-5.88</v>
+        <v>48</v>
       </c>
       <c r="P15" s="2">
         <v>-7.82</v>
       </c>
       <c r="Q15" s="2">
-        <v>-3.26</v>
+        <v>11</v>
       </c>
       <c r="R15" s="2">
         <v>4.29</v>
@@ -1554,13 +1556,13 @@
         <v>-6.53</v>
       </c>
       <c r="O16" s="2">
-        <v>-5.71</v>
+        <v>49</v>
       </c>
       <c r="P16" s="2">
         <v>-7.4</v>
       </c>
       <c r="Q16" s="2">
-        <v>-2.625</v>
+        <v>12</v>
       </c>
       <c r="R16" s="2">
         <v>5.68</v>
@@ -1634,13 +1636,13 @@
         <v>-6.12</v>
       </c>
       <c r="O17" s="2">
-        <v>-5.32</v>
+        <v>50</v>
       </c>
       <c r="P17" s="2">
         <v>-7.04</v>
       </c>
       <c r="Q17" s="2">
-        <v>-1.99</v>
+        <v>13</v>
       </c>
       <c r="R17" s="2">
         <v>7.07</v>
@@ -1714,13 +1716,13 @@
         <v>-5.66</v>
       </c>
       <c r="O18" s="2">
-        <v>-5.0599999999999996</v>
+        <v>51</v>
       </c>
       <c r="P18" s="2">
         <v>-7.01</v>
       </c>
       <c r="Q18" s="2">
-        <v>-1.355</v>
+        <v>14</v>
       </c>
       <c r="R18" s="2">
         <v>8.4600000000000009</v>
@@ -1794,13 +1796,13 @@
         <v>-5.0599999999999996</v>
       </c>
       <c r="O19" s="2">
-        <v>-4.6900000000000004</v>
+        <v>52</v>
       </c>
       <c r="P19" s="2">
         <v>-6.91</v>
       </c>
       <c r="Q19" s="2">
-        <v>-0.71999999999999897</v>
+        <v>15</v>
       </c>
       <c r="R19" s="2">
         <v>9.85</v>
@@ -1874,13 +1876,13 @@
         <v>-4.8</v>
       </c>
       <c r="O20" s="2">
-        <v>-4.67</v>
+        <v>53</v>
       </c>
       <c r="P20" s="2">
         <v>-7.22</v>
       </c>
       <c r="Q20" s="2">
-        <v>-8.4999999999999104E-2</v>
+        <v>16</v>
       </c>
       <c r="R20" s="2">
         <v>11.24</v>
@@ -1954,13 +1956,13 @@
         <v>-4.63</v>
       </c>
       <c r="O21" s="2">
-        <v>-4.79</v>
+        <v>54</v>
       </c>
       <c r="P21" s="2">
         <v>-7.72</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.55000000000000104</v>
+        <v>17</v>
       </c>
       <c r="R21" s="2">
         <v>12.63</v>
@@ -2034,13 +2036,13 @@
         <v>-4.46</v>
       </c>
       <c r="O22" s="2">
-        <v>-4.87</v>
+        <v>55</v>
       </c>
       <c r="P22" s="2">
         <v>-8.19</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.1850000000000001</v>
+        <v>18</v>
       </c>
       <c r="R22" s="2">
         <v>14.02</v>
@@ -2114,13 +2116,13 @@
         <v>-4.62</v>
       </c>
       <c r="O23" s="2">
-        <v>-5.32</v>
+        <v>56</v>
       </c>
       <c r="P23" s="2">
         <v>-9.08</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.82</v>
+        <v>19</v>
       </c>
       <c r="R23" s="2">
         <v>15.41</v>
@@ -2194,13 +2196,13 @@
         <v>-4.53</v>
       </c>
       <c r="O24" s="2">
-        <v>-5.49</v>
+        <v>57</v>
       </c>
       <c r="P24" s="2">
         <v>-9.7200000000000006</v>
       </c>
       <c r="Q24" s="2">
-        <v>2.4550000000000001</v>
+        <v>20</v>
       </c>
       <c r="R24" s="2">
         <v>16.8</v>
@@ -2274,13 +2276,13 @@
         <v>-4.74</v>
       </c>
       <c r="O25" s="2">
-        <v>-5.89</v>
+        <v>58</v>
       </c>
       <c r="P25" s="2">
         <v>-10.47</v>
       </c>
       <c r="Q25" s="2">
-        <v>3.09</v>
+        <v>21</v>
       </c>
       <c r="R25" s="2">
         <v>18.190000000000001</v>
@@ -2354,13 +2356,13 @@
         <v>-4.76</v>
       </c>
       <c r="O26" s="2">
-        <v>-6.04</v>
+        <v>59</v>
       </c>
       <c r="P26" s="2">
         <v>-10.88</v>
       </c>
       <c r="Q26" s="2">
-        <v>3.7250000000000001</v>
+        <v>22</v>
       </c>
       <c r="R26" s="2">
         <v>19.579999999999998</v>
@@ -2434,13 +2436,13 @@
         <v>-4.78</v>
       </c>
       <c r="O27" s="2">
-        <v>-6.16</v>
+        <v>60</v>
       </c>
       <c r="P27" s="2">
         <v>-11.2</v>
       </c>
       <c r="Q27" s="2">
-        <v>4.3600000000000003</v>
+        <v>23</v>
       </c>
       <c r="R27" s="2">
         <v>20.97</v>
@@ -2514,13 +2516,13 @@
         <v>-4.8499999999999996</v>
       </c>
       <c r="O28" s="2">
-        <v>-6.33</v>
+        <v>61</v>
       </c>
       <c r="P28" s="2">
         <v>-11.56</v>
       </c>
       <c r="Q28" s="2">
-        <v>4.9950000000000001</v>
+        <v>24</v>
       </c>
       <c r="R28" s="2">
         <v>22.36</v>
@@ -2594,13 +2596,13 @@
         <v>-4.7300000000000004</v>
       </c>
       <c r="O29" s="2">
-        <v>-6.33</v>
+        <v>62</v>
       </c>
       <c r="P29" s="2">
         <v>-11.85</v>
       </c>
       <c r="Q29" s="2">
-        <v>5.63</v>
+        <v>25</v>
       </c>
       <c r="R29" s="2">
         <v>23.75</v>
@@ -2674,13 +2676,13 @@
         <v>-4.58</v>
       </c>
       <c r="O30" s="2">
-        <v>-6.2</v>
+        <v>63</v>
       </c>
       <c r="P30" s="2">
         <v>-11.77</v>
       </c>
       <c r="Q30" s="2">
-        <v>6.2649999999999997</v>
+        <v>26</v>
       </c>
       <c r="R30" s="2">
         <v>25.14</v>
@@ -2754,13 +2756,13 @@
         <v>-4.34</v>
       </c>
       <c r="O31" s="2">
-        <v>-6.07</v>
+        <v>64</v>
       </c>
       <c r="P31" s="2">
         <v>-11.88</v>
       </c>
       <c r="Q31" s="2">
-        <v>6.9</v>
+        <v>27</v>
       </c>
       <c r="R31" s="2">
         <v>26.53</v>
@@ -2834,13 +2836,13 @@
         <v>-4.25</v>
       </c>
       <c r="O32" s="2">
-        <v>-6.07</v>
+        <v>65</v>
       </c>
       <c r="P32" s="2">
         <v>-12.11</v>
       </c>
       <c r="Q32" s="2">
-        <v>7.5350000000000001</v>
+        <v>28</v>
       </c>
       <c r="R32" s="2">
         <v>27.92</v>
@@ -2914,13 +2916,13 @@
         <v>-4.25</v>
       </c>
       <c r="O33" s="2">
-        <v>-6.17</v>
+        <v>66</v>
       </c>
       <c r="P33" s="2">
         <v>-12.48</v>
       </c>
       <c r="Q33" s="2">
-        <v>8.17</v>
+        <v>29</v>
       </c>
       <c r="R33" s="2">
         <v>29.31</v>
@@ -2994,13 +2996,13 @@
         <v>-4.18</v>
       </c>
       <c r="O34" s="2">
-        <v>-6.2</v>
+        <v>67</v>
       </c>
       <c r="P34" s="2">
         <v>-12.74</v>
       </c>
       <c r="Q34" s="2">
-        <v>8.8049999999999997</v>
+        <v>30</v>
       </c>
       <c r="R34" s="2">
         <v>30.7</v>
@@ -3074,13 +3076,13 @@
         <v>-4.26</v>
       </c>
       <c r="O35" s="2">
-        <v>-6.39</v>
+        <v>68</v>
       </c>
       <c r="P35" s="2">
         <v>-13.24</v>
       </c>
       <c r="Q35" s="2">
-        <v>9.44</v>
+        <v>31</v>
       </c>
       <c r="R35" s="2">
         <v>32.090000000000003</v>
@@ -3154,13 +3156,13 @@
         <v>-4.24</v>
       </c>
       <c r="O36" s="2">
-        <v>-6.4733333333333301</v>
+        <v>69</v>
       </c>
       <c r="P36" s="2">
         <v>-13.58</v>
       </c>
       <c r="Q36" s="2">
-        <v>10.074999999999999</v>
+        <v>32</v>
       </c>
       <c r="R36" s="2">
         <v>33.479999999999997</v>
@@ -3234,13 +3236,13 @@
         <v>-4.2450000000000001</v>
       </c>
       <c r="O37" s="2">
-        <v>-6.5833333333333304</v>
+        <v>70</v>
       </c>
       <c r="P37" s="2">
         <v>-13.96</v>
       </c>
       <c r="Q37" s="2">
-        <v>10.71</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2">
         <v>34.869999999999997</v>
@@ -3314,13 +3316,13 @@
         <v>-4.25</v>
       </c>
       <c r="O38" s="2">
-        <v>-6.6933333333333298</v>
+        <v>71</v>
       </c>
       <c r="P38" s="2">
         <v>-14.34</v>
       </c>
       <c r="Q38" s="2">
-        <v>11.345000000000001</v>
+        <v>34</v>
       </c>
       <c r="R38" s="2">
         <v>36.26</v>
@@ -3394,13 +3396,13 @@
         <v>-4.2549999999999999</v>
       </c>
       <c r="O39" s="2">
-        <v>-6.8033333333333301</v>
+        <v>72</v>
       </c>
       <c r="P39" s="2">
         <v>-14.72</v>
       </c>
       <c r="Q39" s="2">
-        <v>11.98</v>
+        <v>35</v>
       </c>
       <c r="R39" s="2">
         <v>37.65</v>
@@ -3474,13 +3476,13 @@
         <v>-4.26</v>
       </c>
       <c r="O40" s="2">
-        <v>-6.9133333333333304</v>
+        <v>73</v>
       </c>
       <c r="P40" s="2">
         <v>-15.1</v>
       </c>
       <c r="Q40" s="2">
-        <v>12.615</v>
+        <v>36</v>
       </c>
       <c r="R40" s="2">
         <v>39.04</v>
@@ -3554,13 +3556,13 @@
         <v>-4.2649999999999997</v>
       </c>
       <c r="O41" s="2">
-        <v>-7.0233333333333299</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2">
         <v>-15.48</v>
       </c>
       <c r="Q41" s="2">
-        <v>13.25</v>
+        <v>37</v>
       </c>
       <c r="R41" s="2">
         <v>40.43</v>

--- a/demo/3D-FREQ.xlsx
+++ b/demo/3D-FREQ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF5A913-3089-43C7-A5AF-76D62593C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB6AD15-C378-4733-9C2D-8BCD2D4B1A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O41"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q129" sqref="Q129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>-10.19</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R5" s="2">
         <v>-9.61</v>
@@ -6936,7 +6936,7 @@
         <v>-10.19</v>
       </c>
       <c r="Q86" s="2">
-        <v>-9.61</v>
+        <v>1000</v>
       </c>
       <c r="R86" s="2">
         <v>-9.61</v>
@@ -10067,7 +10067,7 @@
         <v>-10.19</v>
       </c>
       <c r="Q129" s="2">
-        <v>-9.61</v>
+        <v>500</v>
       </c>
       <c r="R129" s="2">
         <v>-9.61</v>
